--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ref-pir\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FC9E9D-51EE-4C7B-97C2-092C348F7B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC227952-2EA3-4D84-A830-1770525E677C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Имя</t>
   </si>
@@ -87,9 +87,6 @@
     <t>* (Если Тип не указан, значение запишется напрямую в словарь dict_config)</t>
   </si>
   <si>
-    <t>AuthCredentials</t>
-  </si>
-  <si>
     <t>smtp.gmail.com</t>
   </si>
   <si>
@@ -99,7 +96,28 @@
     <t>The basics of architecture</t>
   </si>
   <si>
-    <t>-</t>
+    <t>https://acme-test.uipath.com/</t>
+  </si>
+  <si>
+    <t>System_URL</t>
+  </si>
+  <si>
+    <t>SHA1Online_URL</t>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
+  <si>
+    <t>ACME_Credential</t>
+  </si>
+  <si>
+    <t>System_CredentialMail</t>
+  </si>
+  <si>
+    <t>WinCred</t>
+  </si>
+  <si>
+    <t>System_Cred</t>
   </si>
 </sst>
 </file>
@@ -192,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -236,6 +254,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -520,7 +541,7 @@
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -555,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -572,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -584,13 +605,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -598,7 +619,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -610,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -622,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -633,14 +654,33 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="8"/>
@@ -2249,9 +2289,11 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{2CDE83EE-C5A0-424B-B4EA-CD23F627DC13}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{BC359E16-FBB0-4BC4-8E60-1F716C2FF8F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
